--- a/data/Mannschaft.xlsx
+++ b/data/Mannschaft.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L-Blu\Levi\Programmieren\Python\DBB-Widgets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C52F59F-FF13-4738-AC22-F6B93B19A761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5891994-2B16-4DAB-BFAC-F218A175FA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mannschaft" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -361,7 +372,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1196,11 +1207,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/Mannschaft.xlsx
+++ b/data/Mannschaft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L-Blu\Levi\Programmieren\Python\DBB-Widgets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5891994-2B16-4DAB-BFAC-F218A175FA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552F0BD7-8992-49AD-AC6B-3A0F42F56DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1210,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/Mannschaft.xlsx
+++ b/data/Mannschaft.xlsx
@@ -1,40 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L-Blu\Levi\Programmieren\Python\DBB-Widgets\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L-Blu\Levi\Programmieren\Python\DBB_Widgets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552F0BD7-8992-49AD-AC6B-3A0F42F56DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0440E199-91C4-456B-9F36-A9180D3E9C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Mannschaft" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="112">
-  <si>
-    <t>Index</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="118">
   <si>
     <t>Name</t>
   </si>
@@ -333,9 +319,24 @@
     <t xml:space="preserve">    &lt;div id="widget_1728327375264"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1728327375264',             {"iframeWidth":600,"iframeHeight":700,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"165491"} );     &lt;/script&gt;</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
     <t xml:space="preserve"> männlich</t>
   </si>
   <si>
+    <t>ä</t>
+  </si>
+  <si>
     <t xml:space="preserve"> DJK SB München</t>
   </si>
   <si>
@@ -357,22 +358,28 @@
     <t xml:space="preserve"> DJK SB München 2 u12BZLQuali</t>
   </si>
   <si>
+    <t>ü</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Ü40</t>
   </si>
   <si>
     <t xml:space="preserve"> Ü35</t>
   </si>
   <si>
+    <t>Ü</t>
+  </si>
+  <si>
     <t>Code groß</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>ß</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -850,9 +857,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1207,26 +1213,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:D22"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" customWidth="1"/>
-    <col min="9" max="9" width="9.21875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1245,1269 +1241,1056 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
       <c r="D2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2">
+        <v>152266</v>
+      </c>
+      <c r="F2">
+        <v>1728327368957</v>
+      </c>
+      <c r="G2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <v>152266</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1728330000000</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3">
+        <v>154153</v>
+      </c>
+      <c r="F3">
+        <v>1728327369199</v>
+      </c>
+      <c r="G3" t="s">
         <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3">
-        <v>154153</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1728330000000</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4">
+        <v>163923</v>
+      </c>
+      <c r="F4">
+        <v>1728327369375</v>
+      </c>
+      <c r="G4" t="s">
         <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4">
-        <v>163923</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1728330000000</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
       </c>
-      <c r="I4" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5">
+        <v>163914</v>
+      </c>
+      <c r="F5">
+        <v>1728327369541</v>
+      </c>
+      <c r="G5" t="s">
         <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5">
-        <v>163914</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1728330000000</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
       </c>
-      <c r="I5" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="J5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
       <c r="D6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6">
+        <v>162955</v>
+      </c>
+      <c r="F6">
+        <v>1728327369706</v>
+      </c>
+      <c r="G6" t="s">
         <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6">
-        <v>162955</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1728330000000</v>
       </c>
       <c r="H6" t="s">
         <v>18</v>
       </c>
-      <c r="I6" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7">
+        <v>223272</v>
+      </c>
+      <c r="F7">
+        <v>1728327369890</v>
+      </c>
+      <c r="G7" t="s">
         <v>19</v>
-      </c>
-      <c r="J6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <v>223272</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1728330000000</v>
       </c>
       <c r="H7" t="s">
         <v>20</v>
       </c>
-      <c r="I7" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="J7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
       <c r="D8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8">
+        <v>166180</v>
+      </c>
+      <c r="F8">
+        <v>1728327370059</v>
+      </c>
+      <c r="G8" t="s">
         <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8">
-        <v>166180</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1728330000000</v>
       </c>
       <c r="H8" t="s">
         <v>23</v>
       </c>
-      <c r="I8" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9">
+        <v>162996</v>
+      </c>
+      <c r="F9">
+        <v>1728327370220</v>
+      </c>
+      <c r="G9" t="s">
         <v>24</v>
-      </c>
-      <c r="J8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9">
-        <v>162996</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1728330000000</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
       </c>
-      <c r="I9" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10">
+        <v>309729</v>
+      </c>
+      <c r="F10">
+        <v>1728327370384</v>
+      </c>
+      <c r="G10" t="s">
         <v>26</v>
-      </c>
-      <c r="J9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10">
-        <v>309729</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1728330000000</v>
       </c>
       <c r="H10" t="s">
         <v>27</v>
       </c>
-      <c r="I10" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
         <v>28</v>
       </c>
-      <c r="J10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="E11">
+        <v>319500</v>
+      </c>
+      <c r="F11">
+        <v>1728327370545</v>
+      </c>
+      <c r="G11" t="s">
         <v>29</v>
-      </c>
-      <c r="F11">
-        <v>319500</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1728330000000</v>
       </c>
       <c r="H11" t="s">
         <v>30</v>
       </c>
-      <c r="I11" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="J11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
       <c r="D12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12">
+        <v>165708</v>
+      </c>
+      <c r="F12">
+        <v>1728327370704</v>
+      </c>
+      <c r="G12" t="s">
         <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12">
-        <v>165708</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1728330000000</v>
       </c>
       <c r="H12" t="s">
         <v>33</v>
       </c>
-      <c r="I12" t="s">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13">
+        <v>163006</v>
+      </c>
+      <c r="F13">
+        <v>1728327370867</v>
+      </c>
+      <c r="G13" t="s">
         <v>34</v>
-      </c>
-      <c r="J12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13">
-        <v>163006</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1728330000000</v>
       </c>
       <c r="H13" t="s">
         <v>35</v>
       </c>
-      <c r="I13" t="s">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14">
+        <v>314794</v>
+      </c>
+      <c r="F14">
+        <v>1728327371024</v>
+      </c>
+      <c r="G14" t="s">
         <v>36</v>
-      </c>
-      <c r="J13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14">
-        <v>314794</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1728330000000</v>
       </c>
       <c r="H14" t="s">
         <v>37</v>
       </c>
-      <c r="I14" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15">
+        <v>317459</v>
+      </c>
+      <c r="F15">
+        <v>1728327371185</v>
+      </c>
+      <c r="G15" t="s">
         <v>38</v>
-      </c>
-      <c r="J14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15">
-        <v>317459</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1728330000000</v>
       </c>
       <c r="H15" t="s">
         <v>39</v>
       </c>
-      <c r="I15" t="s">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16">
+        <v>317505</v>
+      </c>
+      <c r="F16">
+        <v>1728327371346</v>
+      </c>
+      <c r="G16" t="s">
         <v>40</v>
-      </c>
-      <c r="J15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16">
-        <v>317505</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1728330000000</v>
       </c>
       <c r="H16" t="s">
         <v>41</v>
       </c>
-      <c r="I16" t="s">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
         <v>42</v>
       </c>
-      <c r="J16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
       <c r="D17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17">
+        <v>162748</v>
+      </c>
+      <c r="F17">
+        <v>1728327371506</v>
+      </c>
+      <c r="G17" t="s">
         <v>43</v>
-      </c>
-      <c r="E17" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17">
-        <v>162748</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1728330000000</v>
       </c>
       <c r="H17" t="s">
         <v>44</v>
       </c>
-      <c r="I17" t="s">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18">
+        <v>310490</v>
+      </c>
+      <c r="F18">
+        <v>1728327371676</v>
+      </c>
+      <c r="G18" t="s">
         <v>45</v>
-      </c>
-      <c r="J17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18">
-        <v>310490</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1728330000000</v>
       </c>
       <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="I18" t="s">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19">
+        <v>316293</v>
+      </c>
+      <c r="F19">
+        <v>1728327371841</v>
+      </c>
+      <c r="G19" t="s">
         <v>47</v>
-      </c>
-      <c r="J18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19">
-        <v>316293</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1728330000000</v>
       </c>
       <c r="H19" t="s">
         <v>48</v>
       </c>
-      <c r="I19" t="s">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
         <v>49</v>
       </c>
-      <c r="J19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
       <c r="D20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20">
+        <v>310512</v>
+      </c>
+      <c r="F20">
+        <v>1728327372005</v>
+      </c>
+      <c r="G20" t="s">
         <v>50</v>
-      </c>
-      <c r="E20" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20">
-        <v>310512</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1728330000000</v>
       </c>
       <c r="H20" t="s">
         <v>51</v>
       </c>
-      <c r="I20" t="s">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21">
+        <v>313178</v>
+      </c>
+      <c r="F21">
+        <v>1728327372175</v>
+      </c>
+      <c r="G21" t="s">
         <v>52</v>
-      </c>
-      <c r="J20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21">
-        <v>313178</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1728330000000</v>
       </c>
       <c r="H21" t="s">
         <v>53</v>
       </c>
-      <c r="I21" t="s">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22">
+        <v>317910</v>
+      </c>
+      <c r="F22">
+        <v>1728327372352</v>
+      </c>
+      <c r="G22" t="s">
         <v>54</v>
-      </c>
-      <c r="J21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22">
-        <v>317910</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1728330000000</v>
       </c>
       <c r="H22" t="s">
         <v>55</v>
       </c>
-      <c r="I22" t="s">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23">
+        <v>165461</v>
+      </c>
+      <c r="F23">
+        <v>1728327372518</v>
+      </c>
+      <c r="G23" t="s">
         <v>56</v>
-      </c>
-      <c r="J22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23">
-        <v>165461</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1728330000000</v>
       </c>
       <c r="H23" t="s">
         <v>57</v>
       </c>
-      <c r="I23" t="s">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" t="s">
         <v>58</v>
       </c>
-      <c r="J23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="E24">
+        <v>223249</v>
+      </c>
+      <c r="F24">
+        <v>1728327372671</v>
+      </c>
+      <c r="G24" t="s">
         <v>59</v>
-      </c>
-      <c r="F24">
-        <v>223249</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1728330000000</v>
       </c>
       <c r="H24" t="s">
         <v>60</v>
       </c>
-      <c r="I24" t="s">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25">
+        <v>311561</v>
+      </c>
+      <c r="F25">
+        <v>1728327372876</v>
+      </c>
+      <c r="G25" t="s">
         <v>61</v>
-      </c>
-      <c r="J24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25">
-        <v>311561</v>
-      </c>
-      <c r="G25" s="1">
-        <v>1728330000000</v>
       </c>
       <c r="H25" t="s">
         <v>62</v>
       </c>
-      <c r="I25" t="s">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26">
+        <v>223146</v>
+      </c>
+      <c r="F26">
+        <v>1728327373038</v>
+      </c>
+      <c r="G26" t="s">
         <v>63</v>
-      </c>
-      <c r="J25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26">
-        <v>223146</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1728330000000</v>
       </c>
       <c r="H26" t="s">
         <v>64</v>
       </c>
-      <c r="I26" t="s">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
         <v>65</v>
       </c>
-      <c r="J26" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
       <c r="D27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27">
+        <v>223247</v>
+      </c>
+      <c r="F27">
+        <v>1728327373191</v>
+      </c>
+      <c r="G27" t="s">
         <v>66</v>
-      </c>
-      <c r="E27" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27">
-        <v>223247</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1728330000000</v>
       </c>
       <c r="H27" t="s">
         <v>67</v>
       </c>
-      <c r="I27" t="s">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28">
+        <v>223246</v>
+      </c>
+      <c r="F28">
+        <v>1728327373351</v>
+      </c>
+      <c r="G28" t="s">
         <v>68</v>
-      </c>
-      <c r="J27" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28">
-        <v>223246</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1728330000000</v>
       </c>
       <c r="H28" t="s">
         <v>69</v>
       </c>
-      <c r="I28" t="s">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
         <v>70</v>
       </c>
-      <c r="J28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
       <c r="D29" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29">
+        <v>312003</v>
+      </c>
+      <c r="F29">
+        <v>1728327373503</v>
+      </c>
+      <c r="G29" t="s">
         <v>71</v>
-      </c>
-      <c r="E29" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29">
-        <v>312003</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1728330000000</v>
       </c>
       <c r="H29" t="s">
         <v>72</v>
       </c>
-      <c r="I29" t="s">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30">
+        <v>223221</v>
+      </c>
+      <c r="F30">
+        <v>1728327373656</v>
+      </c>
+      <c r="G30" t="s">
         <v>73</v>
-      </c>
-      <c r="J29" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30">
-        <v>223221</v>
-      </c>
-      <c r="G30" s="1">
-        <v>1728330000000</v>
       </c>
       <c r="H30" t="s">
         <v>74</v>
       </c>
-      <c r="I30" t="s">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
         <v>75</v>
       </c>
-      <c r="J30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
       <c r="D31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31">
+        <v>310694</v>
+      </c>
+      <c r="F31">
+        <v>1728327373811</v>
+      </c>
+      <c r="G31" t="s">
         <v>76</v>
-      </c>
-      <c r="E31" t="s">
-        <v>100</v>
-      </c>
-      <c r="F31">
-        <v>310694</v>
-      </c>
-      <c r="G31" s="1">
-        <v>1728330000000</v>
       </c>
       <c r="H31" t="s">
         <v>77</v>
       </c>
-      <c r="I31" t="s">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32">
+        <v>317441</v>
+      </c>
+      <c r="F32">
+        <v>1728327373968</v>
+      </c>
+      <c r="G32" t="s">
         <v>78</v>
-      </c>
-      <c r="J31" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32" t="s">
-        <v>76</v>
-      </c>
-      <c r="E32" t="s">
-        <v>100</v>
-      </c>
-      <c r="F32">
-        <v>317441</v>
-      </c>
-      <c r="G32" s="1">
-        <v>1728330000000</v>
       </c>
       <c r="H32" t="s">
         <v>79</v>
       </c>
-      <c r="I32" t="s">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33">
+        <v>223269</v>
+      </c>
+      <c r="F33">
+        <v>1728327374142</v>
+      </c>
+      <c r="G33" t="s">
         <v>80</v>
-      </c>
-      <c r="J32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33">
-        <v>223269</v>
-      </c>
-      <c r="G33" s="1">
-        <v>1728330000000</v>
       </c>
       <c r="H33" t="s">
         <v>81</v>
       </c>
-      <c r="I33" t="s">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
         <v>82</v>
       </c>
-      <c r="J33" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
       <c r="D34" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34">
+        <v>311924</v>
+      </c>
+      <c r="F34">
+        <v>1728327374300</v>
+      </c>
+      <c r="G34" t="s">
         <v>83</v>
-      </c>
-      <c r="E34" t="s">
-        <v>100</v>
-      </c>
-      <c r="F34">
-        <v>311924</v>
-      </c>
-      <c r="G34" s="1">
-        <v>1728330000000</v>
       </c>
       <c r="H34" t="s">
         <v>84</v>
       </c>
-      <c r="I34" t="s">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35">
+        <v>223172</v>
+      </c>
+      <c r="F35">
+        <v>1728327374489</v>
+      </c>
+      <c r="G35" t="s">
         <v>85</v>
-      </c>
-      <c r="J34" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" t="s">
-        <v>59</v>
-      </c>
-      <c r="F35">
-        <v>223172</v>
-      </c>
-      <c r="G35" s="1">
-        <v>1728330000000</v>
       </c>
       <c r="H35" t="s">
         <v>86</v>
       </c>
-      <c r="I35" t="s">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36">
+        <v>223264</v>
+      </c>
+      <c r="F36">
+        <v>1728327374646</v>
+      </c>
+      <c r="G36" t="s">
         <v>87</v>
-      </c>
-      <c r="J35" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="D36" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" t="s">
-        <v>59</v>
-      </c>
-      <c r="F36">
-        <v>223264</v>
-      </c>
-      <c r="G36" s="1">
-        <v>1728330000000</v>
       </c>
       <c r="H36" t="s">
         <v>88</v>
       </c>
-      <c r="I36" t="s">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
         <v>89</v>
       </c>
-      <c r="J36" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
       <c r="D37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37">
+        <v>311982</v>
+      </c>
+      <c r="F37">
+        <v>1728327374802</v>
+      </c>
+      <c r="G37" t="s">
         <v>90</v>
-      </c>
-      <c r="E37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F37">
-        <v>311982</v>
-      </c>
-      <c r="G37" s="1">
-        <v>1728330000000</v>
       </c>
       <c r="H37" t="s">
         <v>91</v>
       </c>
-      <c r="I37" t="s">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38">
+        <v>165490</v>
+      </c>
+      <c r="F38">
+        <v>1728327374958</v>
+      </c>
+      <c r="G38" t="s">
         <v>92</v>
-      </c>
-      <c r="J37" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" t="s">
-        <v>59</v>
-      </c>
-      <c r="F38">
-        <v>165490</v>
-      </c>
-      <c r="G38" s="1">
-        <v>1728330000000</v>
       </c>
       <c r="H38" t="s">
         <v>93</v>
       </c>
-      <c r="I38" t="s">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
         <v>94</v>
       </c>
-      <c r="J38" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
       <c r="D39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39">
+        <v>310167</v>
+      </c>
+      <c r="F39">
+        <v>1728327375113</v>
+      </c>
+      <c r="G39" t="s">
         <v>95</v>
-      </c>
-      <c r="E39" t="s">
-        <v>100</v>
-      </c>
-      <c r="F39">
-        <v>310167</v>
-      </c>
-      <c r="G39" s="1">
-        <v>1728330000000</v>
       </c>
       <c r="H39" t="s">
         <v>96</v>
       </c>
-      <c r="I39" t="s">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40">
+        <v>165491</v>
+      </c>
+      <c r="F40">
+        <v>1728327375264</v>
+      </c>
+      <c r="G40" t="s">
         <v>97</v>
-      </c>
-      <c r="J39" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>101</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>95</v>
-      </c>
-      <c r="E40" t="s">
-        <v>59</v>
-      </c>
-      <c r="F40">
-        <v>165491</v>
-      </c>
-      <c r="G40" s="1">
-        <v>1728330000000</v>
       </c>
       <c r="H40" t="s">
         <v>98</v>
       </c>
-      <c r="I40" t="s">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>99</v>
       </c>
-      <c r="J40" t="s">
-        <v>111</v>
+      <c r="B43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Mannschaft.xlsx
+++ b/data/Mannschaft.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,19 +424,19 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Ordnungszahl</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Spielklasse</t>
-        </is>
-      </c>
       <c r="D1" t="inlineStr">
         <is>
           <t>Altersklasse</t>
@@ -449,1663 +449,1775 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Liganame</t>
+          <t>Mannschafts_ID</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Liganummer</t>
+          <t>Widget ID</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Widget ID</t>
+          <t>Code groß</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Code groß</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
           <t>Code klein</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DJK SB München</t>
-        </is>
+      <c r="A2" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1</t>
+          <t xml:space="preserve"> DJK SB München</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Senioren</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> männlich</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t xml:space="preserve"> männlich</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>152266</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>1733573700872</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div id="widget_1733573700872"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573700872',             {"iframeWidth":1200,"iframeHeight":600,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"152266"} );     &lt;/script&gt;     </t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div id="widget_1733573700872"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573700872',             {"iframeWidth":600,"iframeHeight":700,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"152266"} );     &lt;/script&gt;     </t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve"> DJK SB München 2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Senioren</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> männlich</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t xml:space="preserve"> männlich</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>154153</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>1733573701194</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573701194"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573701194',             {"iframeWidth":1200,"iframeHeight":600,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"154153"} );     &lt;/script&gt;     </t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573701194"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573701194',             {"iframeWidth":600,"iframeHeight":700,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"154153"} );     &lt;/script&gt;     </t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve"> DJK SB München 3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 3</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Senioren</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> männlich</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t xml:space="preserve"> männlich</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>163923</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>1733573701425</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573701425"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573701425',             {"iframeWidth":1200,"iframeHeight":600,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"163923"} );     &lt;/script&gt;     </t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573701425"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573701425',             {"iframeWidth":600,"iframeHeight":700,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"163923"} );     &lt;/script&gt;     </t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t xml:space="preserve"> DJK SB München 4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve"> 4</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Senioren</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> männlich</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t xml:space="preserve"> männlich</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>163914</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>1733573701687</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573701687"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573701687',             {"iframeWidth":1200,"iframeHeight":600,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"163914"} );     &lt;/script&gt;     </t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573701687"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573701687',             {"iframeWidth":600,"iframeHeight":700,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"163914"} );     &lt;/script&gt;     </t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DJK SB München</t>
-        </is>
+      <c r="A6" t="n">
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1</t>
+          <t xml:space="preserve"> DJK SB München</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t xml:space="preserve"> U18</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> männlich</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t xml:space="preserve"> männlich</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>162955</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>1733573701932</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573701932"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573701932',             {"iframeWidth":1200,"iframeHeight":600,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"162955"} );     &lt;/script&gt;     </t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573701932"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573701932',             {"iframeWidth":600,"iframeHeight":700,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"162955"} );     &lt;/script&gt;     </t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DJK SB München</t>
-        </is>
+      <c r="A7" t="n">
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t xml:space="preserve"> DJK SB München</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t xml:space="preserve"> 2</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t xml:space="preserve"> U18</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> männlich</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t xml:space="preserve"> männlich</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>223272</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>1733573702146</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573702146"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573702146',             {"iframeWidth":1200,"iframeHeight":600,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"223272"} );     &lt;/script&gt;     </t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573702146"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573702146',             {"iframeWidth":600,"iframeHeight":700,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"223272"} );     &lt;/script&gt;     </t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DJK SB München</t>
-        </is>
+      <c r="A8" t="n">
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1</t>
+          <t xml:space="preserve"> DJK SB München</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t xml:space="preserve"> U16</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> männlich</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t xml:space="preserve"> männlich</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>166180</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>1733573702359</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573702359"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573702359',             {"iframeWidth":1200,"iframeHeight":600,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"166180"} );     &lt;/script&gt;     </t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573702359"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573702359',             {"iframeWidth":600,"iframeHeight":700,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"166180"} );     &lt;/script&gt;     </t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t xml:space="preserve"> DJK SB München 2</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t xml:space="preserve"> U16</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> männlich</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t xml:space="preserve"> männlich</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>162996</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>1733573702568</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573702568"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573702568',             {"iframeWidth":1200,"iframeHeight":600,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"162996"} );     &lt;/script&gt;     </t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573702568"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573702568',             {"iframeWidth":600,"iframeHeight":700,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"162996"} );     &lt;/script&gt;     </t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t xml:space="preserve"> DJK SB München 3</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve"> 3</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t xml:space="preserve"> U16</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> männlich</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t xml:space="preserve"> männlich</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>309729</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>1733573702768</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573702768"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573702768',             {"iframeWidth":1200,"iframeHeight":600,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"309729"} );     &lt;/script&gt;     </t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573702768"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573702768',             {"iframeWidth":600,"iframeHeight":700,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"309729"} );     &lt;/script&gt;     </t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DJK SB München</t>
-        </is>
+      <c r="A11" t="n">
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1</t>
+          <t xml:space="preserve"> DJK SB München</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t xml:space="preserve"> U16</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t xml:space="preserve"> weiblich</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>319500</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>1733573702946</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573702946"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573702946',             {"iframeWidth":1200,"iframeHeight":600,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"319500"} );     &lt;/script&gt;     </t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573702946"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573702946',             {"iframeWidth":600,"iframeHeight":700,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"319500"} );     &lt;/script&gt;     </t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DJK SB München</t>
-        </is>
+      <c r="A12" t="n">
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1</t>
+          <t xml:space="preserve"> DJK SB München</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t xml:space="preserve"> U14</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> männlich</t>
-        </is>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t xml:space="preserve"> männlich</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>165708</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>1733573703126</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573703126"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573703126',             {"iframeWidth":1200,"iframeHeight":600,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"165708"} );     &lt;/script&gt;     </t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573703126"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573703126',             {"iframeWidth":600,"iframeHeight":700,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"165708"} );     &lt;/script&gt;     </t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t xml:space="preserve"> DJK SB München 2</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t xml:space="preserve"> U14</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> männlich</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t xml:space="preserve"> männlich</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>163006</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>1733573703306</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573703306"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573703306',             {"iframeWidth":1200,"iframeHeight":600,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"163006"} );     &lt;/script&gt;     </t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573703306"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573703306',             {"iframeWidth":600,"iframeHeight":700,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"163006"} );     &lt;/script&gt;     </t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t xml:space="preserve"> DJK SB München 3</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve"> 3</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t xml:space="preserve"> U14</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> männlich</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t xml:space="preserve"> männlich</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>314794</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>1733573703486</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573703486"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573703486',             {"iframeWidth":1200,"iframeHeight":600,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"314794"} );     &lt;/script&gt;     </t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573703486"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573703486',             {"iframeWidth":600,"iframeHeight":700,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"314794"} );     &lt;/script&gt;     </t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DJK SB München</t>
-        </is>
+      <c r="A15" t="n">
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1</t>
+          <t xml:space="preserve"> DJK SB München</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t xml:space="preserve"> U14</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t xml:space="preserve"> weiblich</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>317459</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>1733573703674</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573703674"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573703674',             {"iframeWidth":1200,"iframeHeight":600,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"317459"} );     &lt;/script&gt;     </t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573703674"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573703674',             {"iframeWidth":600,"iframeHeight":700,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"317459"} );     &lt;/script&gt;     </t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t xml:space="preserve"> DJK SB München 2</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t xml:space="preserve"> U14</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t xml:space="preserve"> weiblich</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>317505</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>1733573703861</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573703861"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573703861',             {"iframeWidth":1200,"iframeHeight":600,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"317505"} );     &lt;/script&gt;     </t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573703861"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573703861',             {"iframeWidth":600,"iframeHeight":700,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"317505"} );     &lt;/script&gt;     </t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DJK SB München</t>
-        </is>
+      <c r="A17" t="n">
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1</t>
+          <t xml:space="preserve"> DJK SB München</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t xml:space="preserve"> U12</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> männlich</t>
-        </is>
-      </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t xml:space="preserve"> männlich</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>162748</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>1733573704047</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573704047"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573704047',             {"iframeWidth":1200,"iframeHeight":600,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"162748"} );     &lt;/script&gt;     </t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573704047"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573704047',             {"iframeWidth":600,"iframeHeight":700,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"162748"} );     &lt;/script&gt;     </t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t xml:space="preserve"> DJK SB München 2</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t xml:space="preserve"> U12</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> männlich</t>
-        </is>
-      </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t xml:space="preserve"> männlich</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>310490</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>1733573704230</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573704230"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573704230',             {"iframeWidth":1200,"iframeHeight":600,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"310490"} );     &lt;/script&gt;     </t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573704230"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573704230',             {"iframeWidth":600,"iframeHeight":700,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"310490"} );     &lt;/script&gt;     </t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DJK SB München</t>
-        </is>
+      <c r="A19" t="n">
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1</t>
+          <t xml:space="preserve"> DJK SB München</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t xml:space="preserve"> U12</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t xml:space="preserve"> weiblich</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>316293</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>1733573704425</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573704425"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573704425',             {"iframeWidth":1200,"iframeHeight":600,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"316293"} );     &lt;/script&gt;     </t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573704425"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573704425',             {"iframeWidth":600,"iframeHeight":700,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"316293"} );     &lt;/script&gt;     </t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DJK SB München</t>
-        </is>
+      <c r="A20" t="n">
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1</t>
+          <t xml:space="preserve"> DJK SB München</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t xml:space="preserve"> U10</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> männlich</t>
-        </is>
-      </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t xml:space="preserve"> männlich</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>310512</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>1733573704614</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573704614"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573704614',             {"iframeWidth":1200,"iframeHeight":600,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"310512"} );     &lt;/script&gt;     </t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573704614"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573704614',             {"iframeWidth":600,"iframeHeight":700,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"310512"} );     &lt;/script&gt;     </t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DJK SB München</t>
-        </is>
+      <c r="A21" t="n">
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t xml:space="preserve"> DJK SB München</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t xml:space="preserve"> 2</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t xml:space="preserve"> U10</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> männlich</t>
-        </is>
-      </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t xml:space="preserve"> männlich</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>313178</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>1733573704799</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573704799"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573704799',             {"iframeWidth":1200,"iframeHeight":600,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"313178"} );     &lt;/script&gt;     </t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573704799"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573704799',             {"iframeWidth":600,"iframeHeight":700,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"313178"} );     &lt;/script&gt;     </t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DJK SB München</t>
-        </is>
+      <c r="A22" t="n">
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1</t>
+          <t xml:space="preserve"> DJK SB München</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t xml:space="preserve"> U10</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t xml:space="preserve"> weiblich</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>317910</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>1733573704997</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573704997"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573704997',             {"iframeWidth":1200,"iframeHeight":600,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"317910"} );     &lt;/script&gt;     </t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573704997"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573704997',             {"iframeWidth":600,"iframeHeight":700,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"317910"} );     &lt;/script&gt;     </t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DJK SB München</t>
-        </is>
+      <c r="A23" t="n">
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1</t>
+          <t xml:space="preserve"> DJK SB München</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Ü40</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> männlich</t>
-        </is>
-      </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t xml:space="preserve"> männlich</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>165461</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>1733573705209</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573705209"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573705209',             {"iframeWidth":1200,"iframeHeight":600,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"165461"} );     &lt;/script&gt;     </t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573705209"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573705209',             {"iframeWidth":600,"iframeHeight":700,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"165461"} );     &lt;/script&gt;     </t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DJK SB München</t>
-        </is>
+      <c r="A24" t="n">
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1</t>
+          <t xml:space="preserve"> DJK SB München</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Ü40</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t xml:space="preserve"> mix</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>223249</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>1733573705406</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573705406"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573705406',             {"iframeWidth":1200,"iframeHeight":600,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"223249"} );     &lt;/script&gt;     </t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573705406"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573705406',             {"iframeWidth":600,"iframeHeight":700,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"223249"} );     &lt;/script&gt;     </t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DJK SB München</t>
-        </is>
+      <c r="A25" t="n">
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1</t>
+          <t xml:space="preserve"> DJK SB München</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Ü35</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> männlich</t>
-        </is>
-      </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t xml:space="preserve"> männlich</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>311561</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>1733573705600</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573705600"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573705600',             {"iframeWidth":1200,"iframeHeight":600,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"311561"} );     &lt;/script&gt;     </t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573705600"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573705600',             {"iframeWidth":600,"iframeHeight":700,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"311561"} );     &lt;/script&gt;     </t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DJK SB München</t>
-        </is>
+      <c r="A26" t="n">
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1</t>
+          <t xml:space="preserve"> DJK SB München</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Senioren</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t xml:space="preserve"> weiblich</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>223146</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>1733573705815</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573705815"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573705815',             {"iframeWidth":1200,"iframeHeight":600,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"223146"} );     &lt;/script&gt;     </t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573705815"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573705815',             {"iframeWidth":600,"iframeHeight":700,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"223146"} );     &lt;/script&gt;     </t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DJK SB München</t>
-        </is>
+      <c r="A27" t="n">
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1</t>
+          <t xml:space="preserve"> DJK SB München</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t xml:space="preserve"> U20</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> männlich</t>
-        </is>
-      </c>
       <c r="E27" t="inlineStr">
         <is>
+          <t xml:space="preserve"> männlich</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>223247</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>1733573706050</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573706050"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573706050',             {"iframeWidth":1200,"iframeHeight":600,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"223247"} );     &lt;/script&gt;     </t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573706050"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573706050',             {"iframeWidth":600,"iframeHeight":700,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"223247"} );     &lt;/script&gt;     </t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DJK SB München</t>
-        </is>
+      <c r="A28" t="n">
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1</t>
+          <t xml:space="preserve"> DJK SB München</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t xml:space="preserve"> U18</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t xml:space="preserve"> weiblich</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>223246</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>1733573706258</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573706258"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573706258',             {"iframeWidth":1200,"iframeHeight":600,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"223246"} );     &lt;/script&gt;     </t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573706258"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573706258',             {"iframeWidth":600,"iframeHeight":700,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"223246"} );     &lt;/script&gt;     </t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t xml:space="preserve"> DJK SB München 2 u18BZLQuali</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1</t>
-        </is>
-      </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t xml:space="preserve"> U17</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> männlich</t>
-        </is>
-      </c>
       <c r="E29" t="inlineStr">
         <is>
+          <t xml:space="preserve"> männlich</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>312003</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>1733573706447</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573706447"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573706447',             {"iframeWidth":1200,"iframeHeight":600,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"312003"} );     &lt;/script&gt;     </t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573706447"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573706447',             {"iframeWidth":600,"iframeHeight":700,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"312003"} );     &lt;/script&gt;     </t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DJK SB München</t>
-        </is>
+      <c r="A30" t="n">
+        <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1</t>
+          <t xml:space="preserve"> DJK SB München</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t xml:space="preserve"> U16</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t xml:space="preserve"> mix</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>223221</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>1733573706631</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573706631"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573706631',             {"iframeWidth":1200,"iframeHeight":600,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"223221"} );     &lt;/script&gt;     </t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573706631"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573706631',             {"iframeWidth":600,"iframeHeight":700,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"223221"} );     &lt;/script&gt;     </t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DJK SB München</t>
-        </is>
+      <c r="A31" t="n">
+        <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1</t>
+          <t xml:space="preserve"> DJK SB München</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t xml:space="preserve"> U15</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> männlich</t>
-        </is>
-      </c>
       <c r="E31" t="inlineStr">
         <is>
+          <t xml:space="preserve"> männlich</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>310694</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>1733573706838</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573706838"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573706838',             {"iframeWidth":1200,"iframeHeight":600,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"310694"} );     &lt;/script&gt;     </t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573706838"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573706838',             {"iframeWidth":600,"iframeHeight":700,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"310694"} );     &lt;/script&gt;     </t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t xml:space="preserve"> DJK SB München 2 -Quali BOL16</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t xml:space="preserve"> U15</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> männlich</t>
-        </is>
-      </c>
       <c r="E32" t="inlineStr">
         <is>
+          <t xml:space="preserve"> männlich</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
           <t>317441</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>1733573707077</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573707077"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573707077',             {"iframeWidth":1200,"iframeHeight":600,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"317441"} );     &lt;/script&gt;     </t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573707077"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573707077',             {"iframeWidth":600,"iframeHeight":700,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"317441"} );     &lt;/script&gt;     </t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DJK SB München</t>
-        </is>
+      <c r="A33" t="n">
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t xml:space="preserve"> DJK SB München</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t xml:space="preserve"> 2</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t xml:space="preserve"> U14</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t xml:space="preserve"> mix</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>223269</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>1733573707272</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573707272"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573707272',             {"iframeWidth":1200,"iframeHeight":600,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"223269"} );     &lt;/script&gt;     </t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573707272"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573707272',             {"iframeWidth":600,"iframeHeight":700,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"223269"} );     &lt;/script&gt;     </t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DJK SB München</t>
-        </is>
+      <c r="A34" t="n">
+        <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1</t>
+          <t xml:space="preserve"> DJK SB München</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t xml:space="preserve"> U13</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> männlich</t>
-        </is>
-      </c>
       <c r="E34" t="inlineStr">
         <is>
+          <t xml:space="preserve"> männlich</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>311924</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>1733573707460</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573707460"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573707460',             {"iframeWidth":1200,"iframeHeight":600,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"311924"} );     &lt;/script&gt;     </t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573707460"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573707460',             {"iframeWidth":600,"iframeHeight":700,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"311924"} );     &lt;/script&gt;     </t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DJK SB München</t>
-        </is>
+      <c r="A35" t="n">
+        <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1</t>
+          <t xml:space="preserve"> DJK SB München</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t xml:space="preserve"> U12</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t xml:space="preserve"> mix</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>223172</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>1733573707667</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573707667"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573707667',             {"iframeWidth":1200,"iframeHeight":600,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"223172"} );     &lt;/script&gt;     </t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573707667"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573707667',             {"iframeWidth":600,"iframeHeight":700,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"223172"} );     &lt;/script&gt;     </t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t xml:space="preserve"> DJK SB München 2</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t xml:space="preserve"> U12</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t xml:space="preserve"> mix</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>223264</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>1733573707904</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573707904"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573707904',             {"iframeWidth":1200,"iframeHeight":600,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"223264"} );     &lt;/script&gt;     </t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573707904"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573707904',             {"iframeWidth":600,"iframeHeight":700,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"223264"} );     &lt;/script&gt;     </t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t xml:space="preserve"> DJK SB München 2 u12BZLQuali</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1</t>
-        </is>
-      </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t xml:space="preserve"> U11</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> männlich</t>
-        </is>
-      </c>
       <c r="E37" t="inlineStr">
         <is>
+          <t xml:space="preserve"> männlich</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
           <t>311982</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>1733573708108</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573708108"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573708108',             {"iframeWidth":1200,"iframeHeight":600,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"311982"} );     &lt;/script&gt;     </t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573708108"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573708108',             {"iframeWidth":600,"iframeHeight":700,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"311982"} );     &lt;/script&gt;     </t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DJK SB München</t>
-        </is>
+      <c r="A38" t="n">
+        <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1</t>
+          <t xml:space="preserve"> DJK SB München</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t xml:space="preserve"> U10</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t xml:space="preserve"> mix</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>165490</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>1733573708301</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573708301"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573708301',             {"iframeWidth":1200,"iframeHeight":600,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"165490"} );     &lt;/script&gt;     </t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573708301"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573708301',             {"iframeWidth":600,"iframeHeight":700,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"165490"} );     &lt;/script&gt;     </t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DJK SB München</t>
-        </is>
+      <c r="A39" t="n">
+        <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1</t>
+          <t xml:space="preserve"> DJK SB München</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t xml:space="preserve"> U8</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> männlich</t>
-        </is>
-      </c>
       <c r="E39" t="inlineStr">
         <is>
+          <t xml:space="preserve"> männlich</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t>310167</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>1733573708488</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573708488"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573708488',             {"iframeWidth":1200,"iframeHeight":600,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"310167"} );     &lt;/script&gt;     </t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573708488"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573708488',             {"iframeWidth":600,"iframeHeight":700,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"310167"} );     &lt;/script&gt;     </t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DJK SB München</t>
-        </is>
+      <c r="A40" t="n">
+        <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1</t>
+          <t xml:space="preserve"> DJK SB München</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t xml:space="preserve"> U8</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t xml:space="preserve"> mix</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>165491</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>1733573708690</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573708690"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573708690',             {"iframeWidth":1200,"iframeHeight":600,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"165491"} );     &lt;/script&gt;</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t xml:space="preserve">    &lt;div id="widget_1733573708690"&gt;&lt;/div&gt;     &lt;script&gt;         widget.mannschaftswidget('widget_1733573708690',             {"iframeWidth":600,"iframeHeight":700,"showRefreshButton":false,"titleColor":"FFFFFF","titleBgColor":"00CC00","tapColor":"FFFFFF","tapBgColor":"333333","colorMatchGroup":"666666","bgColorMatchGroup":"F0F0F0","colorMatchListItem":"000000","bgColorMatchListItem":"FFFFFF","showKuerzelInSpiele":false,"mannschaftsId":"165491"} );     &lt;/script&gt;</t>
         </is>
